--- a/biology/Origine et évolution du vivant/Fréquence_allélique/Fréquence_allélique.xlsx
+++ b/biology/Origine et évolution du vivant/Fréquence_allélique/Fréquence_allélique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9quence_all%C3%A9lique</t>
+          <t>Fréquence_allélique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fréquence allélique est la fréquence à laquelle se trouve l'allèle d'un variant dans une population. Habituellement, on l'exprime comme une proportion ou un pourcentage. La somme des fréquences alléliques de tous les allèles d'un gène dans une population est donc par définition égale à 1. En génétique des populations, les fréquences alléliques représentent la diversité génétique au niveau  de la population, ou de l'espèce.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9quence_all%C3%A9lique</t>
+          <t>Fréquence_allélique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définitions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le locus d'un gène sur un chromosome est l'endroit précis où se situe ce gène sur le chromosome. Ainsi, le locus des gènes A, B, O du système ABO est en 9q34.1-q34.2, c'est-à-dire autosome n° -9-, bras long -q-, bande -34-, sous-bandes 1 et 2.
 Chez les individus diploïdes, il y a deux allèles du même gène à un locus donné situé sur les autosomes, un allèle d'origine paternelle, le second d'origine maternelle. Ces allèles peuvent être semblables chez un sujet dit homozygote ou identiques par descendance en cas de consanguinité, ou différents chez le sujet hétérozygote.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9quence_all%C3%A9lique</t>
+          <t>Fréquence_allélique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Calcul des fréquences alléliques à partir des fréquences génotypiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Si 
         f
@@ -667,7 +683,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%A9quence_all%C3%A9lique</t>
+          <t>Fréquence_allélique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -685,7 +701,9 @@
           <t>Exemple de population</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Considérons une population de dix individus et un gène donné avec deux allèles possibles A et a. Supposons que les génotypes des individus sont les suivants :
 AA, Aa, AA, aa, Aa, AA, AA, Aa, Aa, et AA
@@ -765,7 +783,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fr%C3%A9quence_all%C3%A9lique</t>
+          <t>Fréquence_allélique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -783,7 +801,9 @@
           <t>L'effet de la mutation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Soit ú le taux de mutation d'un allèle A vers un allèle a (la probabilité qu'une copie du gène A soit transformée en a pendant une réplication de l'ADN avant la méiose). Soit 
           p
@@ -866,7 +886,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fr%C3%A9quence_all%C3%A9lique</t>
+          <t>Fréquence_allélique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -884,7 +904,9 @@
           <t>Effet de la pression de sélection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut exister un avantage sélectif d'un allèle par rapport à un autre. Cas par exemple de l'hémoglobine S ou du gène FY*-1,-2 vis-à-vis du paludisme. Un tel sujet hétérozygote aura statistiquement un taux de fécondité supérieur à celui du sujet homozygote.
 Considérons, avec Albert Jacquard, que «les valeurs sélectives σij des divers génotypes (d'allèles i et j) sont des nombres proportionnels aux probabilités de survie, entre la conception et l'âge adulte, des individus ayant ces génotypes.»
